--- a/Masters/Character/CharacterStatusMaster/ClassSchema.xlsx
+++ b/Masters/Character/CharacterStatusMaster/ClassSchema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\project\Aries-Master\Masters\Character\CharacterStatusMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2D3C55-965B-4EAB-B43E-22E7308CFEEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6ED99B-9F0F-4DF1-915C-D163E0F94E66}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9360" xr2:uid="{D010554B-594E-4258-A22D-8907CA064929}"/>
   </bookViews>
@@ -30,14 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>○</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>CharacterId</t>
   </si>
   <si>
@@ -156,6 +153,18 @@
   </si>
   <si>
     <t>SortieTime</t>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ushort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -587,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F285382-06A8-4B0B-8CF2-FCDE073E2222}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -603,64 +612,64 @@
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -737,64 +746,64 @@
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
@@ -804,64 +813,64 @@
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
